--- a/Input/Runfiles/Pricing/yoyinflationlegs.xlsx
+++ b/Input/Runfiles/Pricing/yoyinflationlegs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284CD0C-BC86-4B0D-B4C1-DA19EB40A3E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB55BBF-7EDA-4D78-A1B9-00C10E0CAE41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
   </bookViews>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{B86FB06F-0C56-412B-97F2-36271A809309}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{B86FB06F-0C56-412B-97F2-36271A809309}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Dates</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Base Index Two</t>
+  </si>
+  <si>
+    <t>Leverage</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,6 +456,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -800,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46186C0-3A2B-4A2A-A654-E69603C6CB05}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,54 +817,56 @@
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="9" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="23"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -892,25 +898,28 @@
         <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -938,23 +947,26 @@
       <c r="I4" s="12">
         <v>1</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
         <v>10000000</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
@@ -964,9 +976,10 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M5" s="8"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
@@ -976,9 +989,10 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M6" s="8"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
@@ -988,9 +1002,10 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
@@ -1000,9 +1015,10 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
@@ -1012,9 +1028,10 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
@@ -1024,9 +1041,10 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
@@ -1036,9 +1054,10 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
@@ -1048,9 +1067,10 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M12" s="8"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
@@ -1060,9 +1080,10 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M13" s="8"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
@@ -1072,9 +1093,10 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M14" s="8"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
@@ -1084,9 +1106,10 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M15" s="8"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
@@ -1096,9 +1119,10 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="8"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
@@ -1108,9 +1132,10 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="8"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
@@ -1120,9 +1145,10 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="8"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
@@ -1132,9 +1158,10 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="8"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
@@ -1144,9 +1171,10 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="8"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
@@ -1156,9 +1184,10 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="8"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>
@@ -1168,9 +1197,10 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="8"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
@@ -1180,9 +1210,10 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="8"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
@@ -1192,9 +1223,10 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="8"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
@@ -1204,9 +1236,10 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="8"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
@@ -1216,9 +1249,10 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="8"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -1228,9 +1262,10 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="8"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
@@ -1240,9 +1275,10 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="8"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="8"/>
@@ -1252,9 +1288,10 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="8"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>
@@ -1264,9 +1301,10 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="8"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="8"/>
@@ -1276,9 +1314,10 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="8"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="8"/>
@@ -1288,9 +1327,10 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="8"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="8"/>
@@ -1300,9 +1340,10 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="8"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="8"/>
@@ -1312,9 +1353,10 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="8"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="8"/>
@@ -1324,9 +1366,10 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="8"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="8"/>
@@ -1336,9 +1379,10 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="8"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8"/>
@@ -1348,9 +1392,10 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="8"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
@@ -1360,9 +1405,10 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="8"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
@@ -1372,9 +1418,10 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="8"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8"/>
@@ -1384,9 +1431,10 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="8"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8"/>
@@ -1396,9 +1444,10 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="8"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
@@ -1408,9 +1457,10 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="8"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8"/>
@@ -1420,9 +1470,10 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="8"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8"/>
@@ -1432,14 +1483,15 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="N1:P2"/>
-    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1456,7 +1508,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L28</xm:sqref>
+          <xm:sqref>M4:M28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
